--- a/Excel/apr_inverter_status.xlsx
+++ b/Excel/apr_inverter_status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel-Files\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4379B2-D8F0-4A54-9DA4-2A0BAA182239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2C5ACC-68CE-423B-91F8-38B6A4506410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="21840" windowHeight="13020" xr2:uid="{BEDC0F1F-4D2B-479D-B17B-3F83C9070769}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BEDC0F1F-4D2B-479D-B17B-3F83C9070769}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>ADDRESS  - Pachpedi , Post - Ban Baghera , Dist -
-    Rajnandgaon (CG)  , PIN - 491441</t>
-  </si>
-  <si>
     <t>APR UDYOG PVT LTD.</t>
   </si>
   <si>
     <t>INVERTER  STATUS</t>
+  </si>
+  <si>
+    <t>ADDRESS  - Pachpedi , Post - Ban Baghera , Dist - Rajnandgaon (CG)  , PIN - 491441</t>
   </si>
 </sst>
 </file>
@@ -93,16 +92,16 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -425,52 +424,52 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
